--- a/Экономика/Экономика ракеты.xlsx
+++ b/Экономика/Экономика ракеты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Работа\Ракета\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Documents\GitHub\Rocket\Экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C09F7-A835-4BA5-A85D-E7E4B7197527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAFABB2-E4BF-4704-A277-00DB1AF4CC12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{8FBB6615-AE26-4FFC-93B2-647D5D030AC8}"/>
   </bookViews>
@@ -189,12 +189,6 @@
     <t>Обжимные трубки</t>
   </si>
   <si>
-    <t>1 м</t>
-  </si>
-  <si>
-    <t>3 м</t>
-  </si>
-  <si>
     <t>см.ниже</t>
   </si>
   <si>
@@ -211,6 +205,12 @@
   </si>
   <si>
     <t>Фанера 3 мм</t>
+  </si>
+  <si>
+    <t>4 м</t>
+  </si>
+  <si>
+    <t>1.3 м</t>
   </si>
 </sst>
 </file>
@@ -305,13 +305,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAB715A-685F-4EF1-820D-D50D3EF69A10}">
   <dimension ref="B3:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>12</v>
@@ -719,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>12</v>
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>12</v>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>12</v>
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5">
         <f>F27</f>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5">
         <f>F33</f>
@@ -871,11 +871,11 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5">
         <f>F40</f>
-        <v>13.7</v>
+        <v>16.7</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -924,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5">
         <v>400</v>
@@ -941,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>29</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="F20" s="10">
         <f>SUM(F4:F18)</f>
-        <v>1291.7</v>
+        <v>1294.7</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -1063,12 +1063,12 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="5">
         <f>SUM(F25:F26)/2</f>
         <v>106</v>
@@ -1146,12 +1146,12 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="5">
         <v>5</v>
       </c>
@@ -1201,13 +1201,13 @@
         <v>52</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F37" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1244,15 +1244,15 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="7">
         <f>SUM(F37:F38)</f>
-        <v>13.7</v>
+        <v>16.7</v>
       </c>
       <c r="G40" s="11"/>
     </row>

--- a/Экономика/Экономика ракеты.xlsx
+++ b/Экономика/Экономика ракеты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Documents\GitHub\Rocket\Экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAFABB2-E4BF-4704-A277-00DB1AF4CC12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A8974-449E-49A6-B621-2EABF1943397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{8FBB6615-AE26-4FFC-93B2-647D5D030AC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Комплектующее</t>
   </si>
@@ -63,9 +63,6 @@
     <t>ABS-пластик</t>
   </si>
   <si>
-    <t>FDM-печать</t>
-  </si>
-  <si>
     <t>Парашут</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>1.3 м</t>
+  </si>
+  <si>
+    <t>Себестоимость, FDM-печать</t>
   </si>
 </sst>
 </file>
@@ -269,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -312,6 +312,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAB715A-685F-4EF1-820D-D50D3EF69A10}">
   <dimension ref="B3:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>3</v>
@@ -670,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="5">
         <v>250</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -693,16 +699,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
+      <c r="F5" s="15">
+        <v>200</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -713,17 +719,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -733,17 +735,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -753,17 +751,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -773,17 +767,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -793,30 +783,26 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5">
         <f>F27</f>
@@ -826,16 +812,16 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5">
         <f>F33</f>
@@ -848,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
         <v>40</v>
@@ -862,16 +848,16 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="5">
         <f>F40</f>
@@ -884,13 +870,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5">
         <v>367</v>
@@ -901,13 +887,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="5">
         <v>80</v>
@@ -918,19 +904,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="5">
         <v>400</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -938,13 +924,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="5">
         <v>30</v>
@@ -955,14 +941,14 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -971,11 +957,11 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="10">
         <f>SUM(F4:F18)</f>
-        <v>1294.7</v>
+        <v>1494.7</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -1017,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>3</v>
@@ -1026,45 +1012,45 @@
     </row>
     <row r="25" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="5">
         <v>112</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="5">
         <v>100</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1105,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>3</v>
@@ -1113,16 +1099,16 @@
     </row>
     <row r="31" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="5">
         <v>4</v>
@@ -1131,23 +1117,23 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="1">
         <v>16</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1187,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>3</v>
@@ -1195,16 +1181,16 @@
     </row>
     <row r="37" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="7">
         <v>13</v>
@@ -1213,10 +1199,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
@@ -1231,21 +1217,21 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1257,10 +1243,12 @@
       <c r="G40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="G5:G10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{F3728736-DD9D-48A0-9CA0-5112D227500E}"/>
